--- a/data/Game/ZoneAffix.xlsx
+++ b/data/Game/ZoneAffix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD857AC-4102-40C0-9FB0-17D99D6DE4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA79D109-F08C-4AF8-A441-8F2541BDDC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="4035" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZoneAffix" sheetId="1" r:id="rId1"/>
@@ -780,12 +780,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -845,7 +845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -862,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -879,7 +879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -896,7 +896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -913,7 +913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -930,7 +930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -947,7 +947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -964,7 +964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -981,7 +981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -998,7 +998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>

--- a/data/Game/ZoneAffix.xlsx
+++ b/data/Game/ZoneAffix.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">boring</t>
